--- a/public/Verizon - Simulated Data - v1.xlsx
+++ b/public/Verizon - Simulated Data - v1.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hitachivantara.sharepoint.com/sites/SSVIdocs/Shared Documents/General/01 Proposals/08 Verizon - UK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{4B52ED16-FD47-4C72-960A-4D08F50C8FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7D4A352-A39D-4CB7-A806-B728AE26C4EF}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{4B52ED16-FD47-4C72-960A-4D08F50C8FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49C789BD-5B2B-436B-A6E9-30C2FE207233}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{0201DF17-2481-4149-9D2C-DE4F43CA78E8}"/>
+    <workbookView minimized="1" xWindow="4800" yWindow="3110" windowWidth="14400" windowHeight="8170" firstSheet="2" activeTab="3" xr2:uid="{0201DF17-2481-4149-9D2C-DE4F43CA78E8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Thermal" sheetId="1" r:id="rId1"/>
-    <sheet name="Gauge" sheetId="2" r:id="rId2"/>
+    <sheet name="Thermal" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Gauge" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Thermal-NEW" sheetId="3" r:id="rId3"/>
+    <sheet name="Gauge-NEW" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,19 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
-  <si>
-    <t>tempmax_attribute</t>
-  </si>
-  <si>
-    <t>tempmin_attribute</t>
-  </si>
-  <si>
-    <t>tempavg_attribute</t>
-  </si>
-  <si>
-    <t>Minute</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Year</t>
   </si>
@@ -63,13 +53,35 @@
     <t>Hour</t>
   </si>
   <si>
+    <t>Minute</t>
+  </si>
+  <si>
+    <t>tempmax_attribute</t>
+  </si>
+  <si>
+    <t>tempavg_attribute</t>
+  </si>
+  <si>
+    <t>tempmin_attribute</t>
+  </si>
+  <si>
     <t>gauge_temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date </t>
+  </si>
+  <si>
+    <t>Timestamp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="167" formatCode="h:mm;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,8 +111,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,15 +452,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B825A4-D082-4A2A-BC4A-95BAD0A8ADFB}">
   <dimension ref="A2:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:H121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.90625" customWidth="1"/>
-    <col min="2" max="2" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.90625" customWidth="1"/>
+    <col min="1" max="1" width="6.81640625" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" customWidth="1"/>
     <col min="4" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.1796875" customWidth="1"/>
@@ -454,28 +469,28 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -496,11 +511,11 @@
       </c>
       <c r="F3">
         <f ca="1">RANDBETWEEN(45,50)</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3">
         <f ca="1">AVERAGE(F3,H3)</f>
-        <v>43</v>
+        <v>42.5</v>
       </c>
       <c r="H3">
         <v>37</v>
@@ -689,11 +704,11 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>38.5</v>
+        <v>40</v>
       </c>
       <c r="H10">
         <f t="shared" ref="H10:H62" ca="1" si="1">RANDBETWEEN(35,40)</f>
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -717,11 +732,11 @@
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>39.5</v>
+        <v>39</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -745,11 +760,11 @@
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -773,11 +788,11 @@
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -801,11 +816,11 @@
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>43.5</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -829,11 +844,11 @@
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>36.5</v>
+        <v>38</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -857,11 +872,11 @@
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>42.5</v>
+        <v>44</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -885,11 +900,11 @@
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -969,11 +984,11 @@
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>42.5</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -997,11 +1012,11 @@
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>43.5</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -1025,11 +1040,11 @@
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -1053,11 +1068,11 @@
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -1109,11 +1124,11 @@
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="0"/>
-        <v>41.5</v>
+        <v>40.5</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -1137,11 +1152,11 @@
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="0"/>
-        <v>42.5</v>
+        <v>42</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -1193,11 +1208,11 @@
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>35.5</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -1249,11 +1264,11 @@
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="0"/>
-        <v>38.5</v>
+        <v>38</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -1305,11 +1320,11 @@
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>43.5</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
@@ -1333,11 +1348,11 @@
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="0"/>
-        <v>39.5</v>
+        <v>40</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
@@ -1361,11 +1376,11 @@
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="0"/>
-        <v>40.5</v>
+        <v>39.5</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -1389,11 +1404,11 @@
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="0"/>
-        <v>38.5</v>
+        <v>39</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -1417,11 +1432,11 @@
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="0"/>
-        <v>37.5</v>
+        <v>39</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
@@ -1445,11 +1460,11 @@
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="0"/>
-        <v>37.5</v>
+        <v>38</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
@@ -1473,11 +1488,11 @@
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -1529,11 +1544,11 @@
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>40.5</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
@@ -1557,11 +1572,11 @@
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
@@ -1697,11 +1712,11 @@
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
@@ -1725,11 +1740,11 @@
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="0"/>
-        <v>37.5</v>
+        <v>37</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
@@ -1781,11 +1796,11 @@
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="0"/>
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
@@ -1809,11 +1824,11 @@
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>37.5</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
@@ -1837,11 +1852,11 @@
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>39.5</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
@@ -1865,11 +1880,11 @@
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="0"/>
-        <v>44.5</v>
+        <v>43</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
@@ -1893,11 +1908,11 @@
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>39.5</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
@@ -1921,11 +1936,11 @@
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
@@ -1949,11 +1964,11 @@
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="0"/>
-        <v>37.5</v>
+        <v>37</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
@@ -1977,11 +1992,11 @@
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>36.5</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
@@ -2005,11 +2020,11 @@
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>43.5</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
@@ -2033,11 +2048,11 @@
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>37.5</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
@@ -2089,11 +2104,11 @@
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="0"/>
-        <v>37.5</v>
+        <v>37</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
@@ -2145,11 +2160,11 @@
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="0"/>
-        <v>39.5</v>
+        <v>38</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
@@ -2170,11 +2185,11 @@
       </c>
       <c r="F63">
         <f ca="1">RANDBETWEEN(45,50)</f>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G63">
         <f ca="1">AVERAGE(F63,H63)</f>
-        <v>43.5</v>
+        <v>42</v>
       </c>
       <c r="H63">
         <v>37</v>
@@ -2363,11 +2378,11 @@
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="2"/>
-        <v>38.5</v>
+        <v>39.5</v>
       </c>
       <c r="H70">
         <f t="shared" ref="H70:H121" ca="1" si="3">RANDBETWEEN(35,40)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
@@ -2391,11 +2406,11 @@
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
@@ -2419,11 +2434,11 @@
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>43.5</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
@@ -2447,11 +2462,11 @@
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="2"/>
-        <v>35.5</v>
+        <v>38</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
@@ -2475,11 +2490,11 @@
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="2"/>
-        <v>44.5</v>
+        <v>42.5</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
@@ -2503,11 +2518,11 @@
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="2"/>
-        <v>36.5</v>
+        <v>35.5</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
@@ -2531,11 +2546,11 @@
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>42.5</v>
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
@@ -2559,11 +2574,11 @@
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>39.5</v>
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
@@ -2587,11 +2602,11 @@
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="2"/>
-        <v>37.5</v>
+        <v>37</v>
       </c>
       <c r="H78">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
@@ -2615,11 +2630,11 @@
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>39.5</v>
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
@@ -2643,11 +2658,11 @@
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
@@ -2671,11 +2686,11 @@
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="2"/>
-        <v>43.5</v>
+        <v>41</v>
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
@@ -2699,11 +2714,11 @@
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="2"/>
-        <v>41.5</v>
+        <v>42</v>
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
@@ -2727,11 +2742,11 @@
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="2"/>
-        <v>40.5</v>
+        <v>41.5</v>
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
@@ -2755,11 +2770,11 @@
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="2"/>
-        <v>35.5</v>
+        <v>36.5</v>
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
@@ -2783,11 +2798,11 @@
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>39.5</v>
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
@@ -2839,11 +2854,11 @@
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="2"/>
-        <v>40.5</v>
+        <v>41.5</v>
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
@@ -2867,11 +2882,11 @@
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>37.5</v>
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
@@ -2895,11 +2910,11 @@
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="2"/>
-        <v>42.5</v>
+        <v>41.5</v>
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
@@ -2923,11 +2938,11 @@
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>37.5</v>
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
@@ -2951,11 +2966,11 @@
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="2"/>
-        <v>44.5</v>
+        <v>42.5</v>
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
@@ -2979,11 +2994,11 @@
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="2"/>
-        <v>42.5</v>
+        <v>41</v>
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
@@ -3035,11 +3050,11 @@
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>39.5</v>
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
@@ -3063,11 +3078,11 @@
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="2"/>
-        <v>38.5</v>
+        <v>40.5</v>
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
@@ -3091,11 +3106,11 @@
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="2"/>
-        <v>39.5</v>
+        <v>39</v>
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
@@ -3119,11 +3134,11 @@
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="2"/>
-        <v>38.5</v>
+        <v>37.5</v>
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
@@ -3175,11 +3190,11 @@
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="2"/>
-        <v>36.5</v>
+        <v>37.5</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
@@ -3203,11 +3218,11 @@
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="2"/>
-        <v>38.5</v>
+        <v>38</v>
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
@@ -3231,11 +3246,11 @@
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>40.5</v>
       </c>
       <c r="H101">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
@@ -3259,11 +3274,11 @@
       </c>
       <c r="G102">
         <f t="shared" ca="1" si="2"/>
-        <v>39.5</v>
+        <v>37</v>
       </c>
       <c r="H102">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
@@ -3287,11 +3302,11 @@
       </c>
       <c r="G103">
         <f t="shared" ca="1" si="2"/>
-        <v>37.5</v>
+        <v>37</v>
       </c>
       <c r="H103">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
@@ -3315,11 +3330,11 @@
       </c>
       <c r="G104">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>40.5</v>
       </c>
       <c r="H104">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
@@ -3343,11 +3358,11 @@
       </c>
       <c r="G105">
         <f t="shared" ca="1" si="2"/>
-        <v>37.5</v>
+        <v>38</v>
       </c>
       <c r="H105">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
@@ -3371,11 +3386,11 @@
       </c>
       <c r="G106">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>38.5</v>
       </c>
       <c r="H106">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
@@ -3399,11 +3414,11 @@
       </c>
       <c r="G107">
         <f t="shared" ca="1" si="2"/>
-        <v>35.5</v>
+        <v>37</v>
       </c>
       <c r="H107">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
@@ -3455,11 +3470,11 @@
       </c>
       <c r="G109">
         <f t="shared" ca="1" si="2"/>
-        <v>42.5</v>
+        <v>41.5</v>
       </c>
       <c r="H109">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
@@ -3483,11 +3498,11 @@
       </c>
       <c r="G110">
         <f t="shared" ca="1" si="2"/>
-        <v>36.5</v>
+        <v>36</v>
       </c>
       <c r="H110">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
@@ -3511,11 +3526,11 @@
       </c>
       <c r="G111">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H111">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
@@ -3539,11 +3554,11 @@
       </c>
       <c r="G112">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>42.5</v>
       </c>
       <c r="H112">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
@@ -3567,11 +3582,11 @@
       </c>
       <c r="G113">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>40.5</v>
       </c>
       <c r="H113">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
@@ -3623,11 +3638,11 @@
       </c>
       <c r="G115">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>39.5</v>
       </c>
       <c r="H115">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
@@ -3651,11 +3666,11 @@
       </c>
       <c r="G116">
         <f t="shared" ca="1" si="2"/>
-        <v>38.5</v>
+        <v>36.5</v>
       </c>
       <c r="H116">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
@@ -3679,11 +3694,11 @@
       </c>
       <c r="G117">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>43.5</v>
       </c>
       <c r="H117">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
@@ -3707,11 +3722,11 @@
       </c>
       <c r="G118">
         <f t="shared" ca="1" si="2"/>
-        <v>39.5</v>
+        <v>38.5</v>
       </c>
       <c r="H118">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
@@ -3735,11 +3750,11 @@
       </c>
       <c r="G119">
         <f t="shared" ca="1" si="2"/>
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="H119">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
@@ -3791,11 +3806,11 @@
       </c>
       <c r="G121">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H121">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3807,8 +3822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD12D8C-86B3-4ADD-B8B0-1FA78BC7F28C}">
   <dimension ref="A2:F121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+    <sheetView topLeftCell="A95" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3818,19 +3833,19 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -3854,7 +3869,7 @@
       </c>
       <c r="F3">
         <f ca="1">RANDBETWEEN(45,50)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -5055,7 +5070,7 @@
       </c>
       <c r="F63">
         <f ca="1">RANDBETWEEN(45,50)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
@@ -6215,6 +6230,3636 @@
         <v>59</v>
       </c>
       <c r="F121">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9422D08-7CB4-483F-BBA4-C65E739F9284}">
+  <dimension ref="B2:F121"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C121" sqref="B3:C121"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="D3">
+        <f ca="1">RANDBETWEEN(45,50)</f>
+        <v>48</v>
+      </c>
+      <c r="E3">
+        <f ca="1">AVERAGE(D3,F3)</f>
+        <v>42.5</v>
+      </c>
+      <c r="F3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="D4">
+        <v>44</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E67" si="0">AVERAGE(D4,F4)</f>
+        <v>41.5</v>
+      </c>
+      <c r="F4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2.0833333333333298E-3</v>
+      </c>
+      <c r="D5">
+        <v>49</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="F5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2.7777777777777701E-3</v>
+      </c>
+      <c r="D6">
+        <v>47</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>43.5</v>
+      </c>
+      <c r="F6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3.4722222222222199E-3</v>
+      </c>
+      <c r="D7">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="F7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4.1666666666666597E-3</v>
+      </c>
+      <c r="D8">
+        <v>45</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>40.5</v>
+      </c>
+      <c r="F8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4.8611111111111103E-3</v>
+      </c>
+      <c r="D9">
+        <v>39</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>38.5</v>
+      </c>
+      <c r="F9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5.5555555555555497E-3</v>
+      </c>
+      <c r="D10">
+        <v>41</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>39.5</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F62" ca="1" si="1">RANDBETWEEN(35,40)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6.9444444444444397E-3</v>
+      </c>
+      <c r="D12">
+        <v>49</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>44.5</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C13" s="2">
+        <v>7.63888888888888E-3</v>
+      </c>
+      <c r="D13">
+        <v>36</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C14" s="2">
+        <v>8.3333333333333297E-3</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C15" s="2">
+        <v>9.02777777777777E-3</v>
+      </c>
+      <c r="D15">
+        <v>36</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C16" s="2">
+        <v>9.7222222222222206E-3</v>
+      </c>
+      <c r="D16">
+        <v>48</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="D17">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.1111111111111099E-2</v>
+      </c>
+      <c r="D18">
+        <v>36</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.18055555555555E-2</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D20">
+        <v>48</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="0"/>
+        <v>41.5</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1.3194444444444399E-2</v>
+      </c>
+      <c r="D21">
+        <v>47</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1.38888888888888E-2</v>
+      </c>
+      <c r="D22">
+        <v>48</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1.4583333333333301E-2</v>
+      </c>
+      <c r="D23">
+        <v>43</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1.5277777777777699E-2</v>
+      </c>
+      <c r="D24">
+        <v>35</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1.59722222222222E-2</v>
+      </c>
+      <c r="D25">
+        <v>44</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B26" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1.6666666666666601E-2</v>
+      </c>
+      <c r="D26">
+        <v>48</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="0"/>
+        <v>43.5</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B27" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1.7361111111111101E-2</v>
+      </c>
+      <c r="D27">
+        <v>45</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="0"/>
+        <v>40.5</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B28" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1.8055555555555498E-2</v>
+      </c>
+      <c r="D28">
+        <v>36</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B29" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="D29">
+        <v>47</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B30" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1.94444444444444E-2</v>
+      </c>
+      <c r="D30">
+        <v>38</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B31" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2.01388888888888E-2</v>
+      </c>
+      <c r="D31">
+        <v>49</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="0"/>
+        <v>43.5</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B32" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2.0833333333333301E-2</v>
+      </c>
+      <c r="D32">
+        <v>47</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B33" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2.1527777777777701E-2</v>
+      </c>
+      <c r="D33">
+        <v>43</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B34" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2.2222222222222199E-2</v>
+      </c>
+      <c r="D34">
+        <v>42</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B35" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2.2916666666666599E-2</v>
+      </c>
+      <c r="D35">
+        <v>41</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B36" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2.36111111111111E-2</v>
+      </c>
+      <c r="D36">
+        <v>40</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B37" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2.43055555555555E-2</v>
+      </c>
+      <c r="D37">
+        <v>38</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B38" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D38">
+        <v>35</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="0"/>
+        <v>35.5</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B39" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2.5694444444444402E-2</v>
+      </c>
+      <c r="D39">
+        <v>38</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B40" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2.6388888888888799E-2</v>
+      </c>
+      <c r="D40">
+        <v>41</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="0"/>
+        <v>40.5</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B41" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2.70833333333333E-2</v>
+      </c>
+      <c r="D41">
+        <v>45</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="0"/>
+        <v>41.5</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B42" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2.77777777777777E-2</v>
+      </c>
+      <c r="D42">
+        <v>39</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="0"/>
+        <v>39.5</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B43" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2.8472222222222201E-2</v>
+      </c>
+      <c r="D43">
+        <v>38</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="0"/>
+        <v>38.5</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B44" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2.9166666666666601E-2</v>
+      </c>
+      <c r="D44">
+        <v>44</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="0"/>
+        <v>40.5</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B45" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2.9861111111111099E-2</v>
+      </c>
+      <c r="D45">
+        <v>36</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B46" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C46" s="2">
+        <v>3.0555555555555499E-2</v>
+      </c>
+      <c r="D46">
+        <v>40</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B47" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C47" s="2">
+        <v>3.125E-2</v>
+      </c>
+      <c r="D47">
+        <v>35</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="0"/>
+        <v>36.5</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B48" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C48" s="2">
+        <v>3.19444444444444E-2</v>
+      </c>
+      <c r="D48">
+        <v>42</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="0"/>
+        <v>38.5</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B49" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C49" s="2">
+        <v>3.2638888888888801E-2</v>
+      </c>
+      <c r="D49">
+        <v>45</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B50" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C50" s="2">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="D50">
+        <v>36</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B51" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C51" s="2">
+        <v>3.4027777777777699E-2</v>
+      </c>
+      <c r="D51">
+        <v>39</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B52" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C52" s="2">
+        <v>3.4722222222222203E-2</v>
+      </c>
+      <c r="D52">
+        <v>49</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ca="1" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B53" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C53" s="2">
+        <v>3.5416666666666603E-2</v>
+      </c>
+      <c r="D53">
+        <v>43</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B54" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C54" s="3">
+        <v>3.6111111111111101E-2</v>
+      </c>
+      <c r="D54">
+        <v>43</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B55" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C55" s="2">
+        <v>3.6805555555555501E-2</v>
+      </c>
+      <c r="D55">
+        <v>39</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ca="1" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B56" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C56" s="2">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="D56">
+        <v>37</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B57" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C57" s="2">
+        <v>3.8194444444444399E-2</v>
+      </c>
+      <c r="D57">
+        <v>47</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ca="1" si="0"/>
+        <v>43.5</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B58" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C58" s="2">
+        <v>3.8888888888888799E-2</v>
+      </c>
+      <c r="D58">
+        <v>39</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B59" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C59" s="2">
+        <v>3.9583333333333297E-2</v>
+      </c>
+      <c r="D59">
+        <v>44</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B60" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C60" s="2">
+        <v>4.0277777777777697E-2</v>
+      </c>
+      <c r="D60">
+        <v>36</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="F60">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B61" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C61" s="2">
+        <v>4.0972222222222202E-2</v>
+      </c>
+      <c r="D61">
+        <v>49</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ca="1" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B62" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C62" s="2">
+        <v>4.1666666666666602E-2</v>
+      </c>
+      <c r="D62">
+        <v>39</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B63" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C63" s="2">
+        <v>4.2361111111111099E-2</v>
+      </c>
+      <c r="D63">
+        <f ca="1">RANDBETWEEN(45,50)</f>
+        <v>45</v>
+      </c>
+      <c r="E63">
+        <f ca="1">AVERAGE(D63,F63)</f>
+        <v>41</v>
+      </c>
+      <c r="F63">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B64" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C64" s="2">
+        <v>4.30555555555555E-2</v>
+      </c>
+      <c r="D64">
+        <v>44</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>41.5</v>
+      </c>
+      <c r="F64">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B65" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C65" s="2">
+        <v>4.3749999999999997E-2</v>
+      </c>
+      <c r="D65">
+        <v>49</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="F65">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B66" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C66" s="2">
+        <v>4.4444444444444398E-2</v>
+      </c>
+      <c r="D66">
+        <v>47</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>43.5</v>
+      </c>
+      <c r="F66">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B67" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C67" s="2">
+        <v>4.5138888888888798E-2</v>
+      </c>
+      <c r="D67">
+        <v>36</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="F67">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B68" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C68" s="2">
+        <v>4.5833333333333302E-2</v>
+      </c>
+      <c r="D68">
+        <v>45</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ref="E68:E121" si="2">AVERAGE(D68,F68)</f>
+        <v>40.5</v>
+      </c>
+      <c r="F68">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B69" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C69" s="2">
+        <v>4.6527777777777703E-2</v>
+      </c>
+      <c r="D69">
+        <v>39</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="2"/>
+        <v>38.5</v>
+      </c>
+      <c r="F69">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B70" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C70" s="2">
+        <v>4.72222222222222E-2</v>
+      </c>
+      <c r="D70">
+        <v>41</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ca="1" si="2"/>
+        <v>40.5</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ref="F70:F121" ca="1" si="3">RANDBETWEEN(35,40)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B71" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C71" s="3">
+        <v>4.7916666666666601E-2</v>
+      </c>
+      <c r="D71">
+        <v>40</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ca="1" si="2"/>
+        <v>39.5</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ca="1" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B72" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C72" s="2">
+        <v>4.8611111111111098E-2</v>
+      </c>
+      <c r="D72">
+        <v>49</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ca="1" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ca="1" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B73" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C73" s="2">
+        <v>4.9305555555555498E-2</v>
+      </c>
+      <c r="D73">
+        <v>36</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ca="1" si="2"/>
+        <v>37.5</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ca="1" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B74" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D74">
+        <v>50</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ca="1" si="2"/>
+        <v>43.5</v>
+      </c>
+      <c r="F74">
+        <f t="shared" ca="1" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B75" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C75" s="2">
+        <v>5.0694444444444403E-2</v>
+      </c>
+      <c r="D75">
+        <v>36</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ca="1" si="2"/>
+        <v>36.5</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ca="1" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B76" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C76" s="2">
+        <v>5.1388888888888803E-2</v>
+      </c>
+      <c r="D76">
+        <v>48</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ca="1" si="2"/>
+        <v>41.5</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ca="1" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B77" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C77" s="2">
+        <v>5.2083333333333301E-2</v>
+      </c>
+      <c r="D77">
+        <v>40</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ca="1" si="2"/>
+        <v>38.5</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ca="1" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B78" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C78" s="2">
+        <v>5.2777777777777701E-2</v>
+      </c>
+      <c r="D78">
+        <v>36</v>
+      </c>
+      <c r="E78">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ca="1" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B79" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C79" s="2">
+        <v>5.3472222222222199E-2</v>
+      </c>
+      <c r="D79">
+        <v>40</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ca="1" si="2"/>
+        <v>37.5</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ca="1" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B80" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C80" s="2">
+        <v>5.4166666666666599E-2</v>
+      </c>
+      <c r="D80">
+        <v>48</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ca="1" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B81" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C81" s="2">
+        <v>5.4861111111111097E-2</v>
+      </c>
+      <c r="D81">
+        <v>47</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ca="1" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="F81">
+        <f t="shared" ca="1" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B82" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C82" s="2">
+        <v>5.5555555555555497E-2</v>
+      </c>
+      <c r="D82">
+        <v>48</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ca="1" si="2"/>
+        <v>43.5</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ca="1" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B83" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C83" s="2">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="D83">
+        <v>43</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ca="1" si="2"/>
+        <v>39.5</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ca="1" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B84" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C84" s="2">
+        <v>5.6944444444444402E-2</v>
+      </c>
+      <c r="D84">
+        <v>35</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ca="1" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B85" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C85" s="2">
+        <v>5.7638888888888802E-2</v>
+      </c>
+      <c r="D85">
+        <v>44</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ca="1" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ca="1" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B86" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C86" s="2">
+        <v>5.83333333333333E-2</v>
+      </c>
+      <c r="D86">
+        <v>48</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ca="1" si="2"/>
+        <v>43.5</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ca="1" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B87" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C87" s="2">
+        <v>5.90277777777777E-2</v>
+      </c>
+      <c r="D87">
+        <v>45</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ca="1" si="2"/>
+        <v>42.5</v>
+      </c>
+      <c r="F87">
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B88" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C88" s="3">
+        <v>5.9722222222222197E-2</v>
+      </c>
+      <c r="D88">
+        <v>36</v>
+      </c>
+      <c r="E88">
+        <f t="shared" ca="1" si="2"/>
+        <v>37.5</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ca="1" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B89" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C89" s="3">
+        <v>6.0416666666666598E-2</v>
+      </c>
+      <c r="D89">
+        <v>47</v>
+      </c>
+      <c r="E89">
+        <f t="shared" ca="1" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="F89">
+        <f t="shared" ca="1" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B90" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C90" s="2">
+        <v>6.1111111111111102E-2</v>
+      </c>
+      <c r="D90">
+        <v>38</v>
+      </c>
+      <c r="E90">
+        <f t="shared" ca="1" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ca="1" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B91" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C91" s="2">
+        <v>6.1805555555555503E-2</v>
+      </c>
+      <c r="D91">
+        <v>49</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ca="1" si="2"/>
+        <v>44.5</v>
+      </c>
+      <c r="F91">
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B92" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C92" s="3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D92">
+        <v>47</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ca="1" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ca="1" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B93" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C93" s="2">
+        <v>6.31944444444444E-2</v>
+      </c>
+      <c r="D93">
+        <v>43</v>
+      </c>
+      <c r="E93">
+        <f t="shared" ca="1" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="F93">
+        <f t="shared" ca="1" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B94" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C94" s="2">
+        <v>6.3888888888888801E-2</v>
+      </c>
+      <c r="D94">
+        <v>42</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ca="1" si="2"/>
+        <v>38.5</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ca="1" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B95" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C95" s="2">
+        <v>6.4583333333333298E-2</v>
+      </c>
+      <c r="D95">
+        <v>41</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ca="1" si="2"/>
+        <v>38.5</v>
+      </c>
+      <c r="F95">
+        <f t="shared" ca="1" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B96" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C96" s="2">
+        <v>6.5277777777777699E-2</v>
+      </c>
+      <c r="D96">
+        <v>40</v>
+      </c>
+      <c r="E96">
+        <f t="shared" ca="1" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="F96">
+        <f t="shared" ca="1" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B97" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C97" s="2">
+        <v>6.5972222222222196E-2</v>
+      </c>
+      <c r="D97">
+        <v>38</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ca="1" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="F97">
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B98" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C98" s="2">
+        <v>6.6666666666666596E-2</v>
+      </c>
+      <c r="D98">
+        <v>35</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ca="1" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="F98">
+        <f t="shared" ca="1" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B99" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C99" s="2">
+        <v>6.7361111111111094E-2</v>
+      </c>
+      <c r="D99">
+        <v>38</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ca="1" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="F99">
+        <f t="shared" ca="1" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B100" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C100" s="2">
+        <v>6.8055555555555494E-2</v>
+      </c>
+      <c r="D100">
+        <v>41</v>
+      </c>
+      <c r="E100">
+        <f t="shared" ca="1" si="2"/>
+        <v>39.5</v>
+      </c>
+      <c r="F100">
+        <f t="shared" ca="1" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B101" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C101" s="2">
+        <v>6.8750000000000006E-2</v>
+      </c>
+      <c r="D101">
+        <v>45</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ca="1" si="2"/>
+        <v>41.5</v>
+      </c>
+      <c r="F101">
+        <f t="shared" ca="1" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B102" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C102" s="2">
+        <v>6.9444444444444406E-2</v>
+      </c>
+      <c r="D102">
+        <v>39</v>
+      </c>
+      <c r="E102">
+        <f t="shared" ca="1" si="2"/>
+        <v>39.5</v>
+      </c>
+      <c r="F102">
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B103" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C103" s="2">
+        <v>7.0138888888888806E-2</v>
+      </c>
+      <c r="D103">
+        <v>38</v>
+      </c>
+      <c r="E103">
+        <f t="shared" ca="1" si="2"/>
+        <v>38.5</v>
+      </c>
+      <c r="F103">
+        <f t="shared" ca="1" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B104" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C104" s="2">
+        <v>7.0833333333333304E-2</v>
+      </c>
+      <c r="D104">
+        <v>44</v>
+      </c>
+      <c r="E104">
+        <f t="shared" ca="1" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="F104">
+        <f t="shared" ca="1" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B105" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C105" s="2">
+        <v>7.1527777777777704E-2</v>
+      </c>
+      <c r="D105">
+        <v>36</v>
+      </c>
+      <c r="E105">
+        <f t="shared" ca="1" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="F105">
+        <f t="shared" ca="1" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B106" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C106" s="2">
+        <v>7.2222222222222202E-2</v>
+      </c>
+      <c r="D106">
+        <v>40</v>
+      </c>
+      <c r="E106">
+        <f t="shared" ca="1" si="2"/>
+        <v>37.5</v>
+      </c>
+      <c r="F106">
+        <f t="shared" ca="1" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B107" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C107" s="2">
+        <v>7.2916666666666602E-2</v>
+      </c>
+      <c r="D107">
+        <v>35</v>
+      </c>
+      <c r="E107">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="F107">
+        <f t="shared" ca="1" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B108" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C108" s="2">
+        <v>7.3611111111111099E-2</v>
+      </c>
+      <c r="D108">
+        <v>42</v>
+      </c>
+      <c r="E108">
+        <f t="shared" ca="1" si="2"/>
+        <v>40.5</v>
+      </c>
+      <c r="F108">
+        <f t="shared" ca="1" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B109" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C109" s="3">
+        <v>7.43055555555555E-2</v>
+      </c>
+      <c r="D109">
+        <v>45</v>
+      </c>
+      <c r="E109">
+        <f t="shared" ca="1" si="2"/>
+        <v>42.5</v>
+      </c>
+      <c r="F109">
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B110" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C110" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D110">
+        <v>36</v>
+      </c>
+      <c r="E110">
+        <f t="shared" ca="1" si="2"/>
+        <v>37.5</v>
+      </c>
+      <c r="F110">
+        <f t="shared" ca="1" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B111" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C111" s="2">
+        <v>7.5694444444444398E-2</v>
+      </c>
+      <c r="D111">
+        <v>39</v>
+      </c>
+      <c r="E111">
+        <f t="shared" ca="1" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="F111">
+        <f t="shared" ca="1" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B112" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C112" s="2">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="D112">
+        <v>49</v>
+      </c>
+      <c r="E112">
+        <f t="shared" ca="1" si="2"/>
+        <v>43.5</v>
+      </c>
+      <c r="F112">
+        <f t="shared" ca="1" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B113" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C113" s="2">
+        <v>7.7083333333333295E-2</v>
+      </c>
+      <c r="D113">
+        <v>43</v>
+      </c>
+      <c r="E113">
+        <f t="shared" ca="1" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="F113">
+        <f t="shared" ca="1" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B114" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C114" s="2">
+        <v>7.7777777777777696E-2</v>
+      </c>
+      <c r="D114">
+        <v>43</v>
+      </c>
+      <c r="E114">
+        <f t="shared" ca="1" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="F114">
+        <f t="shared" ca="1" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B115" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C115" s="2">
+        <v>7.8472222222222193E-2</v>
+      </c>
+      <c r="D115">
+        <v>39</v>
+      </c>
+      <c r="E115">
+        <f t="shared" ca="1" si="2"/>
+        <v>38.5</v>
+      </c>
+      <c r="F115">
+        <f t="shared" ca="1" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B116" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C116" s="2">
+        <v>7.9166666666666594E-2</v>
+      </c>
+      <c r="D116">
+        <v>37</v>
+      </c>
+      <c r="E116">
+        <f t="shared" ca="1" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="F116">
+        <f t="shared" ca="1" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B117" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C117" s="2">
+        <v>7.9861111111111105E-2</v>
+      </c>
+      <c r="D117">
+        <v>47</v>
+      </c>
+      <c r="E117">
+        <f t="shared" ca="1" si="2"/>
+        <v>43.5</v>
+      </c>
+      <c r="F117">
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B118" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C118" s="2">
+        <v>8.0555555555555505E-2</v>
+      </c>
+      <c r="D118">
+        <v>39</v>
+      </c>
+      <c r="E118">
+        <f t="shared" ca="1" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="F118">
+        <f t="shared" ca="1" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B119" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C119" s="2">
+        <v>8.1250000000000003E-2</v>
+      </c>
+      <c r="D119">
+        <v>44</v>
+      </c>
+      <c r="E119">
+        <f t="shared" ca="1" si="2"/>
+        <v>41.5</v>
+      </c>
+      <c r="F119">
+        <f t="shared" ca="1" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B120" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C120" s="2">
+        <v>8.1944444444444403E-2</v>
+      </c>
+      <c r="D120">
+        <v>36</v>
+      </c>
+      <c r="E120">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="F120">
+        <f t="shared" ca="1" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B121" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C121" s="2">
+        <v>8.2638888888888803E-2</v>
+      </c>
+      <c r="D121">
+        <v>49</v>
+      </c>
+      <c r="E121">
+        <f t="shared" ca="1" si="2"/>
+        <v>44.5</v>
+      </c>
+      <c r="F121">
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEEA88F-1021-47DF-B41D-613CF3702E61}">
+  <dimension ref="B2:D121"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B3" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="D3">
+        <f ca="1">RANDBETWEEN(45,50)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="D4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2.0833333333333298E-3</v>
+      </c>
+      <c r="D5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2.7777777777777701E-3</v>
+      </c>
+      <c r="D6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3.4722222222222199E-3</v>
+      </c>
+      <c r="D7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4.1666666666666597E-3</v>
+      </c>
+      <c r="D8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4.8611111111111103E-3</v>
+      </c>
+      <c r="D9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B10" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5.5555555555555497E-3</v>
+      </c>
+      <c r="D10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6.9444444444444397E-3</v>
+      </c>
+      <c r="D12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C13" s="2">
+        <v>7.63888888888888E-3</v>
+      </c>
+      <c r="D13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C14" s="2">
+        <v>8.3333333333333297E-3</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C15" s="2">
+        <v>9.02777777777777E-3</v>
+      </c>
+      <c r="D15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B16" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C16" s="2">
+        <v>9.7222222222222206E-3</v>
+      </c>
+      <c r="D16">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="D17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.1111111111111099E-2</v>
+      </c>
+      <c r="D18">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.18055555555555E-2</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D20">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1.3194444444444399E-2</v>
+      </c>
+      <c r="D21">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1.38888888888888E-2</v>
+      </c>
+      <c r="D22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1.4583333333333301E-2</v>
+      </c>
+      <c r="D23">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1.5277777777777699E-2</v>
+      </c>
+      <c r="D24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1.59722222222222E-2</v>
+      </c>
+      <c r="D25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1.6666666666666601E-2</v>
+      </c>
+      <c r="D26">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B27" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1.7361111111111101E-2</v>
+      </c>
+      <c r="D27">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B28" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1.8055555555555498E-2</v>
+      </c>
+      <c r="D28">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B29" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="D29">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B30" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1.94444444444444E-2</v>
+      </c>
+      <c r="D30">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B31" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2.01388888888888E-2</v>
+      </c>
+      <c r="D31">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B32" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2.0833333333333301E-2</v>
+      </c>
+      <c r="D32">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B33" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2.1527777777777701E-2</v>
+      </c>
+      <c r="D33">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B34" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2.2222222222222199E-2</v>
+      </c>
+      <c r="D34">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B35" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2.2916666666666599E-2</v>
+      </c>
+      <c r="D35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B36" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2.36111111111111E-2</v>
+      </c>
+      <c r="D36">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B37" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2.43055555555555E-2</v>
+      </c>
+      <c r="D37">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B38" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D38">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B39" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2.5694444444444402E-2</v>
+      </c>
+      <c r="D39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B40" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2.6388888888888799E-2</v>
+      </c>
+      <c r="D40">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B41" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2.70833333333333E-2</v>
+      </c>
+      <c r="D41">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B42" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2.77777777777777E-2</v>
+      </c>
+      <c r="D42">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B43" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2.8472222222222201E-2</v>
+      </c>
+      <c r="D43">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B44" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2.9166666666666601E-2</v>
+      </c>
+      <c r="D44">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B45" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2.9861111111111099E-2</v>
+      </c>
+      <c r="D45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B46" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C46" s="2">
+        <v>3.0555555555555499E-2</v>
+      </c>
+      <c r="D46">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B47" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C47" s="2">
+        <v>3.125E-2</v>
+      </c>
+      <c r="D47">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B48" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C48" s="2">
+        <v>3.19444444444444E-2</v>
+      </c>
+      <c r="D48">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B49" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C49" s="2">
+        <v>3.2638888888888801E-2</v>
+      </c>
+      <c r="D49">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B50" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C50" s="2">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="D50">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B51" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C51" s="2">
+        <v>3.4027777777777699E-2</v>
+      </c>
+      <c r="D51">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B52" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C52" s="2">
+        <v>3.4722222222222203E-2</v>
+      </c>
+      <c r="D52">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B53" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C53" s="2">
+        <v>3.5416666666666603E-2</v>
+      </c>
+      <c r="D53">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B54" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C54" s="3">
+        <v>3.6111111111111101E-2</v>
+      </c>
+      <c r="D54">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B55" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C55" s="2">
+        <v>3.6805555555555501E-2</v>
+      </c>
+      <c r="D55">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B56" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C56" s="2">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="D56">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B57" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C57" s="2">
+        <v>3.8194444444444399E-2</v>
+      </c>
+      <c r="D57">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B58" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C58" s="2">
+        <v>3.8888888888888799E-2</v>
+      </c>
+      <c r="D58">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B59" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C59" s="2">
+        <v>3.9583333333333297E-2</v>
+      </c>
+      <c r="D59">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B60" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C60" s="2">
+        <v>4.0277777777777697E-2</v>
+      </c>
+      <c r="D60">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B61" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C61" s="2">
+        <v>4.0972222222222202E-2</v>
+      </c>
+      <c r="D61">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B62" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C62" s="2">
+        <v>4.1666666666666602E-2</v>
+      </c>
+      <c r="D62">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B63" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C63" s="2">
+        <v>4.2361111111111099E-2</v>
+      </c>
+      <c r="D63">
+        <f ca="1">RANDBETWEEN(45,50)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B64" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C64" s="2">
+        <v>4.30555555555555E-2</v>
+      </c>
+      <c r="D64">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B65" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C65" s="2">
+        <v>4.3749999999999997E-2</v>
+      </c>
+      <c r="D65">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B66" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C66" s="2">
+        <v>4.4444444444444398E-2</v>
+      </c>
+      <c r="D66">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B67" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C67" s="2">
+        <v>4.5138888888888798E-2</v>
+      </c>
+      <c r="D67">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B68" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C68" s="2">
+        <v>4.5833333333333302E-2</v>
+      </c>
+      <c r="D68">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B69" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C69" s="2">
+        <v>4.6527777777777703E-2</v>
+      </c>
+      <c r="D69">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B70" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C70" s="2">
+        <v>4.72222222222222E-2</v>
+      </c>
+      <c r="D70">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B71" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C71" s="3">
+        <v>4.7916666666666601E-2</v>
+      </c>
+      <c r="D71">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B72" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C72" s="2">
+        <v>4.8611111111111098E-2</v>
+      </c>
+      <c r="D72">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B73" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C73" s="2">
+        <v>4.9305555555555498E-2</v>
+      </c>
+      <c r="D73">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B74" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D74">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B75" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C75" s="2">
+        <v>5.0694444444444403E-2</v>
+      </c>
+      <c r="D75">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B76" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C76" s="2">
+        <v>5.1388888888888803E-2</v>
+      </c>
+      <c r="D76">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B77" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C77" s="2">
+        <v>5.2083333333333301E-2</v>
+      </c>
+      <c r="D77">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B78" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C78" s="2">
+        <v>5.2777777777777701E-2</v>
+      </c>
+      <c r="D78">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B79" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C79" s="2">
+        <v>5.3472222222222199E-2</v>
+      </c>
+      <c r="D79">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B80" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C80" s="2">
+        <v>5.4166666666666599E-2</v>
+      </c>
+      <c r="D80">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B81" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C81" s="2">
+        <v>5.4861111111111097E-2</v>
+      </c>
+      <c r="D81">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B82" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C82" s="2">
+        <v>5.5555555555555497E-2</v>
+      </c>
+      <c r="D82">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B83" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C83" s="2">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="D83">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B84" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C84" s="2">
+        <v>5.6944444444444402E-2</v>
+      </c>
+      <c r="D84">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B85" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C85" s="2">
+        <v>5.7638888888888802E-2</v>
+      </c>
+      <c r="D85">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B86" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C86" s="2">
+        <v>5.83333333333333E-2</v>
+      </c>
+      <c r="D86">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B87" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C87" s="2">
+        <v>5.90277777777777E-2</v>
+      </c>
+      <c r="D87">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B88" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C88" s="3">
+        <v>5.9722222222222197E-2</v>
+      </c>
+      <c r="D88">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B89" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C89" s="3">
+        <v>6.0416666666666598E-2</v>
+      </c>
+      <c r="D89">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B90" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C90" s="2">
+        <v>6.1111111111111102E-2</v>
+      </c>
+      <c r="D90">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B91" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C91" s="2">
+        <v>6.1805555555555503E-2</v>
+      </c>
+      <c r="D91">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B92" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C92" s="3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D92">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B93" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C93" s="2">
+        <v>6.31944444444444E-2</v>
+      </c>
+      <c r="D93">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B94" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C94" s="2">
+        <v>6.3888888888888801E-2</v>
+      </c>
+      <c r="D94">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B95" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C95" s="2">
+        <v>6.4583333333333298E-2</v>
+      </c>
+      <c r="D95">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B96" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C96" s="2">
+        <v>6.5277777777777699E-2</v>
+      </c>
+      <c r="D96">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B97" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C97" s="2">
+        <v>6.5972222222222196E-2</v>
+      </c>
+      <c r="D97">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B98" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C98" s="2">
+        <v>6.6666666666666596E-2</v>
+      </c>
+      <c r="D98">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B99" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C99" s="2">
+        <v>6.7361111111111094E-2</v>
+      </c>
+      <c r="D99">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B100" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C100" s="2">
+        <v>6.8055555555555494E-2</v>
+      </c>
+      <c r="D100">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B101" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C101" s="2">
+        <v>6.8750000000000006E-2</v>
+      </c>
+      <c r="D101">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B102" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C102" s="2">
+        <v>6.9444444444444406E-2</v>
+      </c>
+      <c r="D102">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B103" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C103" s="2">
+        <v>7.0138888888888806E-2</v>
+      </c>
+      <c r="D103">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B104" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C104" s="2">
+        <v>7.0833333333333304E-2</v>
+      </c>
+      <c r="D104">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B105" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C105" s="2">
+        <v>7.1527777777777704E-2</v>
+      </c>
+      <c r="D105">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B106" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C106" s="2">
+        <v>7.2222222222222202E-2</v>
+      </c>
+      <c r="D106">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B107" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C107" s="2">
+        <v>7.2916666666666602E-2</v>
+      </c>
+      <c r="D107">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B108" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C108" s="2">
+        <v>7.3611111111111099E-2</v>
+      </c>
+      <c r="D108">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B109" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C109" s="3">
+        <v>7.43055555555555E-2</v>
+      </c>
+      <c r="D109">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B110" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C110" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D110">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B111" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C111" s="2">
+        <v>7.5694444444444398E-2</v>
+      </c>
+      <c r="D111">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B112" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C112" s="2">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="D112">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B113" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C113" s="2">
+        <v>7.7083333333333295E-2</v>
+      </c>
+      <c r="D113">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B114" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C114" s="2">
+        <v>7.7777777777777696E-2</v>
+      </c>
+      <c r="D114">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B115" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C115" s="2">
+        <v>7.8472222222222193E-2</v>
+      </c>
+      <c r="D115">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B116" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C116" s="2">
+        <v>7.9166666666666594E-2</v>
+      </c>
+      <c r="D116">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B117" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C117" s="2">
+        <v>7.9861111111111105E-2</v>
+      </c>
+      <c r="D117">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B118" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C118" s="2">
+        <v>8.0555555555555505E-2</v>
+      </c>
+      <c r="D118">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B119" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C119" s="2">
+        <v>8.1250000000000003E-2</v>
+      </c>
+      <c r="D119">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B120" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C120" s="2">
+        <v>8.1944444444444403E-2</v>
+      </c>
+      <c r="D120">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B121" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C121" s="2">
+        <v>8.2638888888888803E-2</v>
+      </c>
+      <c r="D121">
         <v>49</v>
       </c>
     </row>
@@ -6481,16 +10126,16 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C17DDF40-40BF-4753-B4DF-63621C9A67A1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9601fec7-d23b-40d9-8c95-6a6580461abb"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="16d42da2-e264-4e51-a7c1-e4b8f5c8b57c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9601fec7-d23b-40d9-8c95-6a6580461abb"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
